--- a/EL - Electrical/Autre/Doc des éléments/Capteurs/Capteurs Toyota/calibs.xlsx
+++ b/EL - Electrical/Autre/Doc des éléments/Capteurs/Capteurs Toyota/calibs.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodriguez\Documents\Perso\Devoirs Arthur\Capteurs EPSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSA\STUF2019\EL - Electrical\Autre\Doc des éléments\Capteurs\Capteurs Toyota\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567522BA-DD6B-4FFF-9F69-152621C4730B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8190" activeTab="1"/>
+    <workbookView xWindow="2295" yWindow="0" windowWidth="13380" windowHeight="10920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Pression 130 bar" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>D360012-00-A01 #425 6531-7-56</t>
   </si>
@@ -47,11 +49,20 @@
   <si>
     <t>E321407-00-A01 #513</t>
   </si>
+  <si>
+    <t>Tension</t>
+  </si>
+  <si>
+    <t>Pression</t>
+  </si>
+  <si>
+    <t>Valeur Arduino</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -100,6 +111,981 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pression 130 bar'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pression</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.20940238259893884"/>
+                  <c:y val="1.2125E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Pression 130 bar'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>113</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Pression 130 bar'!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3EBA-46BF-8CAD-24673A07E426}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1681180767"/>
+        <c:axId val="1631076447"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1681180767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1631076447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1631076447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1681180767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>623886</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>819149</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AF38212-6407-4F69-B677-05AAB3F8CC6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -364,14 +1350,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="30.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.375" customWidth="1"/>
@@ -436,14 +1422,101 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E560F81A-0450-468E-AA7B-B751354F3D67}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <f>A2*5/1024</f>
+        <v>0.126953125</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>45</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B6" si="0">A3*5/1024</f>
+        <v>0.2197265625</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>70</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>0.341796875</v>
+      </c>
+      <c r="C4">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>90</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>0.439453125</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>113</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>0.5517578125</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D4:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="4" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">

--- a/EL - Electrical/Autre/Doc des éléments/Capteurs/Capteurs Toyota/calibs.xlsx
+++ b/EL - Electrical/Autre/Doc des éléments/Capteurs/Capteurs Toyota/calibs.xlsx
@@ -1,33 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSA\STUF2019\EL - Electrical\Autre\Doc des éléments\Capteurs\Capteurs Toyota\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567522BA-DD6B-4FFF-9F69-152621C4730B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46F5122-9FDA-4112-A728-252B7627EC0D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="0" windowWidth="13380" windowHeight="10920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Pression 130 bar" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Pression 15 bar" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>D360012-00-A01 #425 6531-7-56</t>
   </si>
@@ -58,25 +64,71 @@
   <si>
     <t>Valeur Arduino</t>
   </si>
+  <si>
+    <t>Capteur 1</t>
+  </si>
+  <si>
+    <t>Pression (bar)</t>
+  </si>
+  <si>
+    <t>Tension (V)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capteur 2 </t>
+  </si>
+  <si>
+    <t>Capteur 3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -91,11 +143,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -128,6 +187,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Courbe d'étalonnage des capteurs de pression par Bob Janka</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -141,11 +225,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -168,18 +252,19 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Pression 130 bar'!$C$1</c:f>
+              <c:f>'Pression 130 bar'!$A$1:$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Pression</c:v>
+                  <c:v>Capteur 1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
               <a:noFill/>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -188,24 +273,49 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="9525" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -234,7 +344,7 @@
                   <a:pPr>
                     <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
+                        <a:schemeClr val="dk1">
                           <a:lumMod val="65000"/>
                           <a:lumOff val="35000"/>
                         </a:schemeClr>
@@ -251,31 +361,31 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Pression 130 bar'!$A$2:$A$6</c:f>
+              <c:f>'Pression 130 bar'!$B$3:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>26</c:v>
+                  <c:v>0.126953125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45</c:v>
+                  <c:v>0.2197265625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70</c:v>
+                  <c:v>0.341796875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90</c:v>
+                  <c:v>0.439453125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>113</c:v>
+                  <c:v>0.5517578125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Pression 130 bar'!$C$2:$C$6</c:f>
+              <c:f>'Pression 130 bar'!$C$3:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -301,6 +411,166 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3EBA-46BF-8CAD-24673A07E426}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pression 130 bar'!$D$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Capteur 2 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Pression 130 bar'!$E$3:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.124</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.158</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.48099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.54700000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Pression 130 bar'!$D$3:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F54F-47AC-8FC4-3E4FBD6CC04D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -326,7 +596,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -336,15 +606,56 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pression 130 bar'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tension (V)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="dk1">
                 <a:lumMod val="25000"/>
                 <a:lumOff val="75000"/>
               </a:schemeClr>
@@ -358,9 +669,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -388,7 +699,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -398,15 +709,56 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pression 130 bar'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pression (bar)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="dk1">
                 <a:lumMod val="25000"/>
                 <a:lumOff val="75000"/>
               </a:schemeClr>
@@ -420,9 +772,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -440,13 +792,58 @@
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-    </c:plotArea>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -460,11 +857,443 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="70" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pression 15 bar'!$A$1:$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Capteur 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="63500" cap="rnd" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Pression 15 bar'!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.26600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.89</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Pression 15 bar'!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D46A-48E2-8C6B-551A52835B7C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="138974463"/>
+        <c:axId val="146920559"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="138974463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pression 15 bar'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tension (V)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="146920559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="146920559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pression 15 bar'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pression (bar)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="138974463"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="43000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -531,36 +1360,76 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="246">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -568,20 +1437,20 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:chartArea mods="allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -589,16 +1458,16 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -632,39 +1501,66 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -673,18 +1569,21 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
@@ -712,16 +1611,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -736,7 +1634,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -745,9 +1643,9 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -761,12 +1659,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -780,12 +1678,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -799,26 +1697,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -832,12 +1724,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
@@ -851,14 +1743,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -870,12 +1762,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -889,27 +1781,44 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="0"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -917,11 +1826,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -929,12 +1849,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -948,12 +1868,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -962,14 +1882,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -978,7 +1897,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -990,21 +1909,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
     </cs:spPr>
   </cs:upBar>
   <cs:valueAxis>
@@ -1012,15 +1922,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="25000"/>
             <a:lumOff val="75000"/>
           </a:schemeClr>
@@ -1028,6 +1938,526 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="244">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="43000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="20000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="0" kern="1200" spc="70" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="63500" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1037,12 +2467,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1051,16 +2475,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>623886</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>233361</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>819149</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1068,6 +2492,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AF38212-6407-4F69-B677-05AAB3F8CC6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>623887</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34980B9F-0D24-4101-A83F-BCDAEF77B166}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1423,88 +2888,201 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E560F81A-0450-468E-AA7B-B751354F3D67}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>26</v>
       </c>
-      <c r="B2">
-        <f>A2*5/1024</f>
+      <c r="B3">
+        <f>A3*5/1024</f>
         <v>0.126953125</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>0</v>
       </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.124</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>45</v>
       </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B6" si="0">A3*5/1024</f>
+      <c r="B4">
+        <f t="shared" ref="B4:B7" si="0">A4*5/1024</f>
         <v>0.2197265625</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>5</v>
       </c>
+      <c r="D4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.158</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>70</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <f t="shared" si="0"/>
         <v>0.341796875</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>10.5</v>
       </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>90</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <f t="shared" si="0"/>
         <v>0.439453125</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>15</v>
       </c>
+      <c r="D6" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>113</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <f t="shared" si="0"/>
         <v>0.5517578125</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>20</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D8" s="3">
+        <v>5</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D9" s="3">
+        <v>7</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.26500000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D10" s="3">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D11" s="3">
+        <v>12</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D12" s="3">
+        <v>15</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D13" s="3">
+        <v>17</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.48099999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D14" s="3">
+        <v>20</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.54700000000000004</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1600,4 +3178,85 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F86F03-B47A-4EED-993A-AA577EC8B937}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>2.63</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/EL - Electrical/Autre/Doc des éléments/Capteurs/Capteurs Toyota/calibs.xlsx
+++ b/EL - Electrical/Autre/Doc des éléments/Capteurs/Capteurs Toyota/calibs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSA\STUF2019\EL - Electrical\Autre\Doc des éléments\Capteurs\Capteurs Toyota\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46F5122-9FDA-4112-A728-252B7627EC0D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DB5CE9-A77F-4586-B2EE-21660FDC96A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -148,13 +148,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2888,10 +2888,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E560F81A-0450-468E-AA7B-B751354F3D67}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:B23"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2902,15 +2902,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -2922,10 +2922,10 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2940,10 +2940,10 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>0</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>0.124</v>
       </c>
     </row>
@@ -2952,16 +2952,16 @@
         <v>45</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B7" si="0">A4*5/1024</f>
+        <f t="shared" ref="B4:B9" si="0">A4*5/1024</f>
         <v>0.2197265625</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>0.5</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>0.158</v>
       </c>
     </row>
@@ -2976,10 +2976,10 @@
       <c r="C5">
         <v>10.5</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>0.16</v>
       </c>
     </row>
@@ -2994,10 +2994,10 @@
       <c r="C6">
         <v>15</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>1.5</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>0.17</v>
       </c>
     </row>
@@ -3012,67 +3012,89 @@
       <c r="C7">
         <v>20</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>2</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>0.18</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D8" s="3">
+      <c r="C8">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2">
         <v>5</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>0.22</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D9" s="3">
+      <c r="C9">
+        <v>30</v>
+      </c>
+      <c r="D9" s="2">
         <v>7</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>0.26500000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>10</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>0.33</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>12</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>0.375</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>15</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>0.44</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>17</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>0.48099999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>20</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>0.54700000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D15" s="2">
+        <v>22.3333333333333</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.59633333333333305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D16" s="2">
+        <v>24.8333333333333</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.64983333333333304</v>
       </c>
     </row>
   </sheetData>
@@ -3184,23 +3206,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F86F03-B47A-4EED-993A-AA577EC8B937}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
     </row>
